--- a/report_zone/Report_zone10.xlsx
+++ b/report_zone/Report_zone10.xlsx
@@ -2385,7 +2385,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       <c r="HE8" t="inlineStr"/>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       <c r="HE10" t="inlineStr"/>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="HE12" t="inlineStr"/>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
       <c r="HE15" t="inlineStr"/>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -17241,7 +17241,7 @@
       <c r="HE19" t="inlineStr"/>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -19705,7 +19705,7 @@
       <c r="HE22" t="inlineStr"/>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -20605,7 +20605,7 @@
       <c r="HE23" t="inlineStr"/>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -23281,7 +23281,7 @@
       <c r="HE26" t="inlineStr"/>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -25021,7 +25021,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -25929,7 +25929,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -26809,7 +26809,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -28521,7 +28521,7 @@
       <c r="HE32" t="inlineStr"/>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -29353,7 +29353,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -30185,7 +30185,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -31097,7 +31097,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -31933,7 +31933,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -32777,7 +32777,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -33685,7 +33685,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -34541,7 +34541,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -35373,7 +35373,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -36157,7 +36157,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -36989,7 +36989,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -37821,7 +37821,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -38401,7 +38401,7 @@
       <c r="HE44" t="inlineStr"/>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -39233,7 +39233,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -40065,7 +40065,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -40973,7 +40973,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -41881,7 +41881,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -42789,7 +42789,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -43705,7 +43705,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -44613,7 +44613,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -45517,7 +45517,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -46425,7 +46425,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -47333,7 +47333,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -48185,7 +48185,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -49093,7 +49093,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -50001,7 +50001,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -50921,7 +50921,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -51841,7 +51841,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -53657,7 +53657,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -54565,7 +54565,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -55473,7 +55473,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -56381,7 +56381,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -57297,7 +57297,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -58217,7 +58217,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -59125,7 +59125,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -59945,7 +59945,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -60853,7 +60853,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -61769,7 +61769,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -62677,7 +62677,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
@@ -63585,7 +63585,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:54:05</t>
+          <t>2025-05-19 19:54:09</t>
         </is>
       </c>
     </row>
